--- a/整合結果/EPU匯出結果/2025-06-14/2025-06-14_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-14/2025-06-14_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$68:$A$69</f>
+              <f>'Sheet1'!$A$80:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$68:$B$69</f>
+              <f>'Sheet1'!$B$80:$B$81</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>67</row>
+      <row>79</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2562,42 +2562,421 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-06-14_0539_自由時報_財經_中東局勢緊張引發賣壓 美股收黑.txt</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>半導體、經濟</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>中東局勢、局勢緊張、緊張</t>
+        </is>
+      </c>
+    </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-06-14_0549_自由時報_財經_伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％.txt</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>半導體、台積電、股市、美元、能源、經濟</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>消費者物價指數、聯準會</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>反彈、失業、地緣政治、地緣政治緊張、緊張、擔憂</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>13</v>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-06-14_0551_自由時報_財經_以色列空襲伊朗黃金飆漲！差一步破歷史新高.txt</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>美元、經濟</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、中東局勢、中東緊張局勢、地緣政治、緊張</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>51</v>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-06-14_0647_自由時報_財經_股價優於預期 投顧：政經環境不如想像差.txt</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>台股、股市、美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>降息</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>反彈、波動、通膨、悲觀、疑慮、糟糕</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-06-14_0838_自由時報_財經_以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元.txt</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>美元、經濟</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>央行</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>地緣政治、政治動盪、動盪、擔憂</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-06-14_1045_自由時報_財經_合法農舍旁鋪水泥？小心變更使用要補稅！.txt</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-06-14_1124_自由時報_財經_選邊站？越南正式加入金磚國家 成為第10個夥伴國.txt</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-06-14_1128_自由時報_財經_高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間.txt</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>商業、經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-06-14_1129_自由時報_財經_臻鼎董事長沈慶芳 獲頒中央大學名譽博士.txt</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-06-14_1420_自由時報_財經_誠品生活台南正式開幕 估創年消費人群可達400萬人次.txt</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>半導體、半導體產業、商業、經濟</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>創造就業</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-06-14_1508_自由時報_財經_新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元.txt</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>憂心</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-06-14_1618_自由時報_財經_Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」.txt</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>商業、經濟</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>預算</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>20.31%</t>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>21.05%</t>
         </is>
       </c>
     </row>
